--- a/xlsx/法学_intext.xlsx
+++ b/xlsx/法学_intext.xlsx
@@ -15,1017 +15,1020 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>法学</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Friedrich_von_Logau</t>
+  </si>
+  <si>
+    <t>en-Friedrich von Logau</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Julius_von_Kirchmann</t>
+  </si>
+  <si>
+    <t>en-Julius von Kirchmann</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>法律哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%91%A8</t>
+  </si>
+  <si>
+    <t>东周</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>法家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>古罗马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B0%94%E6%AF%94%E5%AE%89</t>
+  </si>
+  <si>
+    <t>乌尔比安</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%9E%9C%C2%B7%E6%A0%BC%E8%80%81%E7%A7%80%E6%96%AF</t>
+  </si>
+  <si>
+    <t>胡果·格老秀斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
+  </si>
+  <si>
+    <t>文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>神学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E7%A6%AE</t>
+  </si>
+  <si>
+    <t>周礼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E6%8B%89%E5%BE%B7%E5%B8%83%E9%B2%81%E8%B5%AB</t>
+  </si>
+  <si>
+    <t>古斯塔夫·拉德布鲁赫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>康德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%8B%92</t>
+  </si>
+  <si>
+    <t>席勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>威廉·冯·洪堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A0%BC%E7%88%BE</t>
+  </si>
+  <si>
+    <t>黑格尔</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Heinrich_von_Treitschke</t>
+  </si>
+  <si>
+    <t>en-Heinrich von Treitschke</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斐迪南·滕尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
+  </si>
+  <si>
+    <t>孟德斯鸠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>论法的精神</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%92%8C%E5%85%AC%E6%B0%91%E6%9D%83%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>人权和公民权宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>自然科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%B4%AA%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>柏林洪堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
+  </si>
+  <si>
+    <t>价值论</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Alf_Ross</t>
+  </si>
+  <si>
+    <t>en-Alf Ross</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86</t>
+  </si>
+  <si>
+    <t>公理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>法理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/820</t>
+  </si>
+  <si>
+    <t>中国学科分类国家标准/820</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%80%BB%E8%BE%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律逻辑学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>立法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%88%B6%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>法制史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%80%9D%E6%83%B3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>法律思想史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>比较法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宪法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>行政法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>民法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>知识产权法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>金融法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>刑法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%86%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>法医学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>刑罚学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>司法科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E9%91%91%E8%AD%98%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>刑事鑑识学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犯罪学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E4%BE%A6%E6%9F%A5%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>犯罪侦查学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>教育制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>法学士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8D%9A%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>法律博士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E7%A1%95%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>法学硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>法学博士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E6%BB%85%E4%BA%A1</t>
+  </si>
+  <si>
+    <t>清朝灭亡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>北京大学法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>北京大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%90%B4%E5%A4%A7%E5%AD%A6_(%E8%8B%8F%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>东吴大学 (苏州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%90%B3%E5%A4%A7%E5%AD%B8%E6%B3%95%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>东吴大学法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%99%BD%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>朝阳大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>中国政法大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>西南政法大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>华东政法大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>西北政法大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E8%B2%A1%E7%B6%93%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>中南财经政法大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%BC%A2%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9E%97%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>吉林大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E5%AE%B6%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>沈家本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立台湾大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8%E6%B3%95%E5%BE%8B%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国立台湾大学法律学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立政治大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立台北大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E8%BC%94%E4%BB%81%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>天主教辅仁大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>司法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
+  </si>
+  <si>
+    <t>检察官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%A1%9E%E7%B5%84</t>
+  </si>
+  <si>
+    <t>第一类组</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港中文大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港城市大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%AD%A6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国法学教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%AD%90</t>
+  </si>
+  <si>
+    <t>管欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>法学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E6%9C%9F%E5%88%8A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>法学期刊列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Jurisprudence</t>
+  </si>
+  <si>
+    <t>Template talk-Jurisprudence</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E7%B8%BD%E5%89%87</t>
+  </si>
+  <si>
+    <t>民法总则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%B3%95</t>
+  </si>
+  <si>
+    <t>债法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>物权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
+  </si>
+  <si>
+    <t>继承法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
+  </si>
+  <si>
+    <t>刑事诉讼法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4</t>
+  </si>
+  <si>
+    <t>上诉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E5%AF%A9</t>
+  </si>
+  <si>
+    <t>再审</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B8%B8%E4%B8%8A%E8%A8%B4</t>
+  </si>
+  <si>
+    <t>非常上诉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
+  </si>
+  <si>
+    <t>民事诉讼法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%B3%95</t>
+  </si>
+  <si>
+    <t>经济法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人文地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>环境地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>历史学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>国际关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>乡村社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>文化人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>语言学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人与动物关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>区域研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>商学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会神经科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>认知科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>传播学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Community_studies</t>
+  </si>
+  <si>
+    <t>en-Community studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>文化研究</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Development_studies</t>
+  </si>
+  <si>
+    <t>en-Development studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>教育学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
+  </si>
+  <si>
+    <t>en-Environmental social science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_studies</t>
+  </si>
+  <si>
+    <t>en-Environmental studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>食品研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>性别研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>全球研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>技术史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人类生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>信息学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>国际研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>媒体研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科学哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>历史哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理哲学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Philosophy_of_social_science</t>
+  </si>
+  <si>
+    <t>en-Philosophy of social science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
+  </si>
+  <si>
+    <t>en-Land-use planning</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
+  </si>
+  <si>
+    <t>城市规划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>公共卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>区域经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>科技与社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>科学研究</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
+  </si>
+  <si>
+    <t>en-Geisteswissenschaft</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人文科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Friedrich_von_Logau</t>
-  </si>
-  <si>
-    <t>en-Friedrich von Logau</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Julius_von_Kirchmann</t>
-  </si>
-  <si>
-    <t>en-Julius von Kirchmann</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法律哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%91%A8</t>
-  </si>
-  <si>
-    <t>東周</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>法家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>古羅馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B0%94%E6%AF%94%E5%AE%89</t>
-  </si>
-  <si>
-    <t>乌尔比安</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%9E%9C%C2%B7%E6%A0%BC%E8%80%81%E7%A7%80%E6%96%AF</t>
-  </si>
-  <si>
-    <t>胡果·格老秀斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
-  </si>
-  <si>
-    <t>文藝復興</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>醫學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>神學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>拉丁語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E7%A6%AE</t>
-  </si>
-  <si>
-    <t>周禮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E6%8B%89%E5%BE%B7%E5%B8%83%E9%B2%81%E8%B5%AB</t>
-  </si>
-  <si>
-    <t>古斯塔夫·拉德布鲁赫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>康德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%8B%92</t>
-  </si>
-  <si>
-    <t>席勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>威廉·馮·洪堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A0%BC%E7%88%BE</t>
-  </si>
-  <si>
-    <t>黑格爾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Heinrich_von_Treitschke</t>
-  </si>
-  <si>
-    <t>en-Heinrich von Treitschke</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斐迪南·滕尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
-  </si>
-  <si>
-    <t>孟德斯鳩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
-  </si>
-  <si>
-    <t>論法的精神</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%92%8C%E5%85%AC%E6%B0%91%E6%9D%83%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>人权和公民权宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>自然科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%B4%AA%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>柏林洪堡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
-  </si>
-  <si>
-    <t>價值論</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alf_Ross</t>
-  </si>
-  <si>
-    <t>en-Alf Ross</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86</t>
-  </si>
-  <si>
-    <t>公理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/820</t>
-  </si>
-  <si>
-    <t>中国学科分类国家标准/820</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%80%BB%E8%BE%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律逻辑学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>立法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%88%B6%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>法制史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%80%9D%E6%83%B3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>法律思想史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>比較法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宪法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>行政法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>民法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>知識產權法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>金融法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>刑法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%86%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法醫學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>刑罰學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>司法科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E9%91%91%E8%AD%98%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>刑事鑑識學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>犯罪學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E4%BE%A6%E6%9F%A5%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>犯罪侦查学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>教育制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>法学士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8D%9A%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>法律博士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E7%A1%95%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>法学硕士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>法學博士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E6%BB%85%E4%BA%A1</t>
-  </si>
-  <si>
-    <t>清朝滅亡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>北京大学法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>北京大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%90%B4%E5%A4%A7%E5%AD%A6_(%E8%8B%8F%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>东吴大学 (苏州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%90%B3%E5%A4%A7%E5%AD%B8%E6%B3%95%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>東吳大學法學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%99%BD%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>朝陽大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>中国政法大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>西南政法大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>华东政法大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>西北政法大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E8%B2%A1%E7%B6%93%E6%94%BF%E6%B3%95%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>中南財經政法大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>中國人民大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%BC%A2%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>武漢大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9E%97%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>吉林大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E5%AE%B6%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>沈家本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立臺灣大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8%E6%B3%95%E5%BE%8B%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國立臺灣大學法律學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立政治大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立臺北大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E8%BC%94%E4%BB%81%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>天主教輔仁大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>司法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
-  </si>
-  <si>
-    <t>檢察官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
-  </si>
-  <si>
-    <t>律師</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%A1%9E%E7%B5%84</t>
-  </si>
-  <si>
-    <t>第一類組</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港中文大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港城市大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%AD%A6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国法学教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%AD%90</t>
-  </si>
-  <si>
-    <t>管歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>法学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E6%9C%9F%E5%88%8A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>法学期刊列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Jurisprudence</t>
-  </si>
-  <si>
-    <t>Template talk-Jurisprudence</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E7%B8%BD%E5%89%87</t>
-  </si>
-  <si>
-    <t>民法總則</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%B3%95</t>
-  </si>
-  <si>
-    <t>債法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>物權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
-  </si>
-  <si>
-    <t>繼承法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
-  </si>
-  <si>
-    <t>刑事訴訟法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4</t>
-  </si>
-  <si>
-    <t>上訴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E5%AF%A9</t>
-  </si>
-  <si>
-    <t>再審</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B8%B8%E4%B8%8A%E8%A8%B4</t>
-  </si>
-  <si>
-    <t>非常上訴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
-  </si>
-  <si>
-    <t>民事訴訟法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%B3%95</t>
-  </si>
-  <si>
-    <t>经济法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人文地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>環境地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>歷史學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>國際關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>鄉村社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>考古學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>文化人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>語言學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人與動物關係學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>區域研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>商學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会神经科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>認知科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>傳播學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Community_studies</t>
-  </si>
-  <si>
-    <t>en-Community studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>文化研究</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Development_studies</t>
-  </si>
-  <si>
-    <t>en-Development studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>教育學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
-  </si>
-  <si>
-    <t>en-Environmental social science</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_studies</t>
-  </si>
-  <si>
-    <t>en-Environmental studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>食品研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>性别研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>全球研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>技术史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>信息学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>國際研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>媒體研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>历史哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理哲学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Philosophy_of_social_science</t>
-  </si>
-  <si>
-    <t>en-Philosophy of social science</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
-  </si>
-  <si>
-    <t>en-Land-use planning</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
-  </si>
-  <si>
-    <t>城市規劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
-  </si>
-  <si>
-    <t>公共衛生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>區域經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>科技與社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>科學研究</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
-  </si>
-  <si>
-    <t>en-Geisteswissenschaft</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人文科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4473,7 +4476,7 @@
         <v>204</v>
       </c>
       <c r="G107" t="n">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4496,13 +4499,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -4525,10 +4528,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4554,13 +4557,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4589,7 +4592,7 @@
         <v>208</v>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4676,7 +4679,7 @@
         <v>214</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -4705,7 +4708,7 @@
         <v>216</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4734,7 +4737,7 @@
         <v>218</v>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4763,7 +4766,7 @@
         <v>220</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4792,7 +4795,7 @@
         <v>222</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -4821,7 +4824,7 @@
         <v>224</v>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -4850,7 +4853,7 @@
         <v>226</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4879,7 +4882,7 @@
         <v>228</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -4908,7 +4911,7 @@
         <v>230</v>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4937,7 +4940,7 @@
         <v>232</v>
       </c>
       <c r="G123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -4966,7 +4969,7 @@
         <v>234</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -4995,7 +4998,7 @@
         <v>236</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5082,7 +5085,7 @@
         <v>242</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5111,7 +5114,7 @@
         <v>244</v>
       </c>
       <c r="G129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5140,7 +5143,7 @@
         <v>246</v>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5198,7 +5201,7 @@
         <v>250</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5227,7 +5230,7 @@
         <v>252</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5285,7 +5288,7 @@
         <v>256</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5314,7 +5317,7 @@
         <v>258</v>
       </c>
       <c r="G136" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5604,7 +5607,7 @@
         <v>278</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5633,7 +5636,7 @@
         <v>280</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5952,7 +5955,7 @@
         <v>302</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -5981,7 +5984,7 @@
         <v>304</v>
       </c>
       <c r="G159" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6010,7 +6013,7 @@
         <v>306</v>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6039,7 +6042,7 @@
         <v>308</v>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6358,7 +6361,7 @@
         <v>330</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -6387,7 +6390,7 @@
         <v>332</v>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -6445,12 +6448,41 @@
         <v>336</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
       </c>
       <c r="I175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>175</v>
+      </c>
+      <c r="E176" t="s">
+        <v>335</v>
+      </c>
+      <c r="F176" t="s">
+        <v>337</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>4</v>
+      </c>
+      <c r="I176" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/法学_intext.xlsx
+++ b/xlsx/法学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社會科學</t>
   </si>
   <si>
-    <t>政策_政策_政治_法学</t>
+    <t>体育运动_体育运动_体育_法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
